--- a/한국과학창의재단 메이커 지원사업/하노이의 하루 예산안.xlsx
+++ b/한국과학창의재단 메이커 지원사업/하노이의 하루 예산안.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duru/Documents/hanoi-day/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\gardenhanoi\한국과학창의재단 메이커 지원사업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBEF5FF-2CE1-CE4E-BD0D-31A975BC9395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="28300" windowHeight="17440" xr2:uid="{7CC62398-1F05-F746-AB61-4D4CB21EACFD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="예산안-20180831" sheetId="1" r:id="rId1"/>
     <sheet name="장부" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,23 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">장비 대여료 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>내역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>산출기준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이저커팅기 대여
-임대기간: 6월 4, 6, 11, 13, 18, 20
-= 총6일
-임대업체: 세운상가 서울 fab lab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -64,10 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사업비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>두성종이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +83,6 @@
   </si>
   <si>
     <t>업체:킨코스, 갭프로세스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업활동비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -162,21 +143,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">운송비 </t>
-  </si>
-  <si>
-    <t>2,000원x250부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>25,000원x2회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사업추진비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>예산코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,14 +168,58 @@
   </si>
   <si>
     <t>집행날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.사업장비및재료비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.사업활동비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.사업추진비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 구입비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료비 증액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000원x20회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자비부담함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,13 +243,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,7 +301,28 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,154 +638,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D670EE7C-3CBB-BE45-9121-09CEBD411EFD}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="76">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3">
         <v>72000</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H5" si="0">D2-G2</f>
         <v>72000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="57">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>28000</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H5" si="0">D3-G3</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="38">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11">
         <v>500000</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
         <v>142500</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>142500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="114">
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>1407500</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
         <v>1133000</v>
@@ -738,146 +807,147 @@
         <v>274500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57">
+    <row r="7" spans="1:9" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>785000</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>15000</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19">
-      <c r="A9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10">
         <v>500000</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19">
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>50000</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3">
         <v>500000</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="3">
-        <f>SUM(D2:D11)</f>
-        <v>4000000</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ADED41-C3A3-4347-AD35-01A8C16F392B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
